--- a/StudentList.xlsx
+++ b/StudentList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guymorgenshtern/Documents/GitHub/SignInSystem/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasharora/Desktop/School/CompSci/SignInSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D6F398-0CFA-F349-A85D-2AB509AC5DB7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559F96D1-40CC-3541-9B9A-5C5ECE0EBC86}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{4AF1F5FB-B3BA-F640-AB4F-0F5C88CD9E13}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>Sudent ID</t>
-  </si>
-  <si>
     <t xml:space="preserve">First Name </t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>Grade</t>
+  </si>
+  <si>
+    <t>Student ID</t>
   </si>
 </sst>
 </file>
@@ -415,23 +415,23 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -439,10 +439,10 @@
         <v>222222222</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
       <c r="D2">
         <v>12</v>
@@ -453,10 +453,10 @@
         <v>111111111</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
       <c r="D3">
         <v>12</v>
@@ -467,10 +467,10 @@
         <v>333333333</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
       <c r="D4">
         <v>12</v>
@@ -481,10 +481,10 @@
         <v>444444444</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
       </c>
       <c r="D5">
         <v>12</v>

--- a/StudentList.xlsx
+++ b/StudentList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasharora/Desktop/School/CompSci/SignInSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559F96D1-40CC-3541-9B9A-5C5ECE0EBC86}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70325388-EB80-7649-9B66-D642F15B1F6A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{4AF1F5FB-B3BA-F640-AB4F-0F5C88CD9E13}"/>
   </bookViews>
@@ -415,7 +415,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -445,7 +445,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -459,7 +459,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -473,7 +473,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
